--- a/Data/joined_Sonntag_coord.xlsx
+++ b/Data/joined_Sonntag_coord.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Desktop\git_folder\DataScienceProject\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF3B901-057C-4F68-A898-318662964B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1045,8 +1064,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,13 +1128,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1153,7 +1180,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1187,6 +1214,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1221,9 +1249,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1396,14 +1425,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G189"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1431,15 +1462,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3">
+        <f>COUNTA(D2:D189)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1447,13 +1482,17 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <v>16.36359117</v>
+        <v>16.363591169999999</v>
       </c>
       <c r="G4">
-        <v>48.20730667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>48.207306670000001</v>
+      </c>
+      <c r="I4">
+        <f>COUNTA(F2:F189)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1461,7 +1500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1469,7 +1508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1477,7 +1516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1485,7 +1524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1493,7 +1532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1510,7 +1549,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1527,7 +1566,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1535,13 +1574,13 @@
         <v>16</v>
       </c>
       <c r="F12">
-        <v>16.37037525</v>
+        <v>16.370375249999999</v>
       </c>
       <c r="G12">
-        <v>48.21017985</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>48.210179850000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1549,7 +1588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1566,7 +1605,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1574,7 +1613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1582,7 +1621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1590,7 +1629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1598,7 +1637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1606,7 +1645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1614,7 +1653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1631,7 +1670,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1639,7 +1678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1647,7 +1686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1655,7 +1694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1663,7 +1702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1671,7 +1710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1679,7 +1718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1687,7 +1726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1695,7 +1734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1703,7 +1742,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1711,7 +1750,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1719,7 +1758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1736,7 +1775,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1753,7 +1792,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1770,7 +1809,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1778,7 +1817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1786,13 +1825,13 @@
         <v>38</v>
       </c>
       <c r="F37">
-        <v>16.37638786</v>
+        <v>16.376387860000001</v>
       </c>
       <c r="G37">
-        <v>48.20958737</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>48.209587370000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1800,7 +1839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1808,7 +1847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1816,7 +1855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1833,7 +1872,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1841,13 +1880,13 @@
         <v>38</v>
       </c>
       <c r="F42">
-        <v>16.37638786</v>
+        <v>16.376387860000001</v>
       </c>
       <c r="G42">
-        <v>48.20958737</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>48.209587370000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1855,7 +1894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1872,7 +1911,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1889,7 +1928,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1897,7 +1936,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1905,7 +1944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1913,7 +1952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1930,7 +1969,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1938,7 +1977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1955,7 +1994,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1963,7 +2002,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1980,7 +2019,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1988,7 +2027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2005,7 +2044,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2013,7 +2052,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2030,7 +2069,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2038,7 +2077,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2046,7 +2085,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2054,7 +2093,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2062,7 +2101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2070,7 +2109,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2078,7 +2117,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2086,7 +2125,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2103,7 +2142,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2111,7 +2150,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2128,7 +2167,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2148,10 +2187,10 @@
         <v>16.37273416</v>
       </c>
       <c r="G68">
-        <v>48.20698073</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>48.206980729999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2159,7 +2198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2176,13 +2215,13 @@
         <v>297</v>
       </c>
       <c r="F70">
-        <v>16.37969495</v>
+        <v>16.379694950000001</v>
       </c>
       <c r="G70">
-        <v>48.19712841</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>48.197128409999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2190,7 +2229,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2198,7 +2237,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2218,10 +2257,10 @@
         <v>16.37858988</v>
       </c>
       <c r="G73">
-        <v>48.20773869</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>48.207738689999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2238,13 +2277,13 @@
         <v>299</v>
       </c>
       <c r="F74">
-        <v>16.37533411</v>
+        <v>16.375334110000001</v>
       </c>
       <c r="G74">
-        <v>48.20871326</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>48.208713260000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2252,7 +2291,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2260,7 +2299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2277,7 +2316,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2285,7 +2324,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2293,7 +2332,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2301,7 +2340,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2309,7 +2348,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2317,7 +2356,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2334,7 +2373,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2342,7 +2381,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2350,7 +2389,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2370,10 +2409,10 @@
         <v>16.37858988</v>
       </c>
       <c r="G86">
-        <v>48.20773869</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>48.207738689999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2381,7 +2420,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2389,7 +2428,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2397,7 +2436,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2405,7 +2444,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2413,7 +2452,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2421,7 +2460,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2438,7 +2477,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2446,7 +2485,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2463,7 +2502,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2480,7 +2519,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2497,7 +2536,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2514,13 +2553,13 @@
         <v>305</v>
       </c>
       <c r="F98">
-        <v>16.37881416</v>
+        <v>16.378814160000001</v>
       </c>
       <c r="G98">
-        <v>48.21261937</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>48.212619369999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2528,7 +2567,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2536,7 +2575,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2553,7 +2592,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2561,7 +2600,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2569,7 +2608,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2577,7 +2616,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2585,7 +2624,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2602,7 +2641,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2610,7 +2649,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2627,7 +2666,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2644,7 +2683,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2652,13 +2691,13 @@
         <v>98</v>
       </c>
       <c r="F110">
-        <v>16.3884228</v>
+        <v>16.388422800000001</v>
       </c>
       <c r="G110">
-        <v>48.21224095</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>48.212240950000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2675,7 +2714,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2683,7 +2722,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2700,7 +2739,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2708,7 +2747,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2716,7 +2755,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2724,7 +2763,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2741,13 +2780,13 @@
         <v>305</v>
       </c>
       <c r="F117">
-        <v>16.37881416</v>
+        <v>16.378814160000001</v>
       </c>
       <c r="G117">
-        <v>48.21261937</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>48.212619369999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2764,7 +2803,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2772,7 +2811,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2789,7 +2828,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2806,7 +2845,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2823,7 +2862,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2831,7 +2870,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2839,7 +2878,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2856,7 +2895,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2864,7 +2903,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2872,7 +2911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2880,7 +2919,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2888,7 +2927,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2896,7 +2935,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2904,7 +2943,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2912,7 +2951,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2929,7 +2968,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2946,13 +2985,13 @@
         <v>305</v>
       </c>
       <c r="F134">
-        <v>16.37881416</v>
+        <v>16.378814160000001</v>
       </c>
       <c r="G134">
-        <v>48.21261937</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>48.212619369999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2969,7 +3008,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2986,7 +3025,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2994,7 +3033,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3002,7 +3041,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3019,7 +3058,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3036,7 +3075,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3053,7 +3092,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3070,7 +3109,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3078,7 +3117,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3095,7 +3134,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3103,7 +3142,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3111,7 +3150,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3131,10 +3170,10 @@
         <v>16.36726977</v>
       </c>
       <c r="G147">
-        <v>48.21374354</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>48.213743540000003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3142,7 +3181,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3159,13 +3198,13 @@
         <v>324</v>
       </c>
       <c r="F149">
-        <v>16.36359523</v>
+        <v>16.363595230000001</v>
       </c>
       <c r="G149">
-        <v>48.2128214</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>48.212821400000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3182,7 +3221,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3199,13 +3238,13 @@
         <v>326</v>
       </c>
       <c r="F151">
-        <v>16.36607743</v>
+        <v>16.366077430000001</v>
       </c>
       <c r="G151">
-        <v>48.2113306</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>48.211330599999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3225,10 +3264,10 @@
         <v>16.36549175</v>
       </c>
       <c r="G152">
-        <v>48.21000871</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>48.210008709999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3245,13 +3284,13 @@
         <v>328</v>
       </c>
       <c r="F153">
-        <v>16.35822875</v>
+        <v>16.358228749999999</v>
       </c>
       <c r="G153">
-        <v>48.21860117</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>48.218601169999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3268,7 +3307,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3285,7 +3324,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3293,7 +3332,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3301,7 +3340,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3309,7 +3348,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3329,10 +3368,10 @@
         <v>16.35517063</v>
       </c>
       <c r="G159">
-        <v>48.21484394</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>48.214843940000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3340,7 +3379,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3348,7 +3387,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3356,7 +3395,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3373,7 +3412,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3390,7 +3429,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3398,7 +3437,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3415,7 +3454,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3432,7 +3471,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3440,7 +3479,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3457,7 +3496,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3465,7 +3504,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3473,7 +3512,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3490,7 +3529,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3507,7 +3546,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3515,7 +3554,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3523,7 +3562,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3540,7 +3579,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3557,7 +3596,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3565,7 +3604,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3582,7 +3621,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3590,7 +3629,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -3598,7 +3637,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -3606,7 +3645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -3623,7 +3662,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -3631,7 +3670,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -3648,7 +3687,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3665,7 +3704,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3673,7 +3712,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3690,7 +3729,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
